--- a/va_facility_data_2025-02-20/Salina VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Salina%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Salina VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Salina%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4f07855612754a15a89efd46f39ca70c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R69b21896530f456883f965050f69a053"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6103efd2dbc744e68c4f446b308f0d12"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9cd773fccb1947d5a2f120ea70755240"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R80e954951d0c4998b2cdb9ba139b7d86"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re21066ad255a4ad68f6ef9c1c9c62efe"/>
   </x:sheets>
 </x:workbook>
 </file>
